--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,46 +40,55 @@
     <t>name</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>worse</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>stupid</t>
@@ -88,60 +97,48 @@
     <t>shocking</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -166,13 +160,13 @@
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>true</t>
   </si>
   <si>
     <t>social</t>
@@ -181,7 +175,10 @@
     <t>documentary</t>
   </si>
   <si>
-    <t>’</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -545,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,16 +632,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -664,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -767,10 +764,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>0.5666666666666667</v>
@@ -1035,16 +1032,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.5333333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,16 +1082,16 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.5263157894736842</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.4827586206896552</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.631578947368421</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.3888888888888889</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1206,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,10 +1232,10 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -1256,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5882352941176471</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>0.1818181818181818</v>
@@ -1314,13 +1311,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1332,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.1463414634146341</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -1356,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,13 +1361,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,16 +1382,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.1458333333333333</v>
+        <v>0.06193078324225865</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>41</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,10 +1414,10 @@
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.05919854280510018</v>
+        <v>0.02473498233215548</v>
       </c>
       <c r="L19">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1033</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,13 +1461,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4710144927536232</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1482,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.02473498233215548</v>
+        <v>0.01355421686746988</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1506,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>276</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1511,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3846153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.007682458386683738</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1556,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>775</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1564,13 +1561,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3829787234042553</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1582,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.00576036866359447</v>
+        <v>0.008640552995391706</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1606,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1726</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1614,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.375</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1632,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1640,13 +1637,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3571428571428572</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1658,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1666,13 +1663,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.35</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1684,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1692,13 +1689,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3478260869565217</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1710,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1718,13 +1715,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1736,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1744,13 +1741,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1762,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1770,13 +1767,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.25</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1788,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1796,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2142857142857143</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1814,33 +1811,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
